--- a/EURUSD/EUR-statistics.xlsx
+++ b/EURUSD/EUR-statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\ServerProjects\Quant-Momentum-Analysis\EURUSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBCE505-FADE-428A-8D4A-CDF103EB4679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468A524-78E1-4C04-A209-58F561EE5EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12480" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="33">
   <si>
     <t>Range</t>
   </si>
@@ -130,12 +130,21 @@
   <si>
     <t>Grand total</t>
   </si>
+  <si>
+    <t>WinRate</t>
+  </si>
+  <si>
+    <t>Aerage WinRate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +160,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -483,10 +499,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -494,6 +511,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,10 +556,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,23 +580,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,45 +592,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -857,23 +877,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AE105"/>
+  <dimension ref="B1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
@@ -881,25 +901,25 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="I2" s="31" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="I2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
-      <c r="Q2" s="22" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="34"/>
+      <c r="Q2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -917,30 +937,30 @@
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="25">
         <v>30</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="23">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="11">
         <v>1843</v>
       </c>
-      <c r="R3" s="42">
+      <c r="R3" s="22">
         <f>Q3-D15</f>
         <v>2</v>
       </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
@@ -958,25 +978,25 @@
       <c r="F4" s="3">
         <v>38.36</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="43"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -994,30 +1014,29 @@
       <c r="F5" s="3">
         <v>28.87</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="37">
-        <f>100-SUM(F7:F14)</f>
-        <v>82.64</v>
-      </c>
-      <c r="K5" s="37">
-        <f>100-SUM(F8:F14)</f>
-        <v>90.72</v>
-      </c>
-      <c r="L5" s="37">
-        <f>100-SUM(F9:F14)</f>
-        <v>95.17</v>
-      </c>
-      <c r="M5" s="37">
-        <f>100-SUM(F10:F14)</f>
-        <v>97.61</v>
-      </c>
-      <c r="N5" s="38">
-        <f>100-SUM(F11:F14)</f>
-        <v>98.59</v>
-      </c>
-      <c r="O5" s="11"/>
+      <c r="J5" s="17">
+        <f>100-SUM(F7:F14)-$R$3</f>
+        <v>80.64</v>
+      </c>
+      <c r="K5" s="17">
+        <f>100-SUM(F8:F14)-$R$3</f>
+        <v>88.72</v>
+      </c>
+      <c r="L5" s="17">
+        <f>100-SUM(F9:F14)-$R$3</f>
+        <v>93.17</v>
+      </c>
+      <c r="M5" s="17">
+        <f>100-SUM(F10:F14)-$R$3</f>
+        <v>95.61</v>
+      </c>
+      <c r="N5" s="17">
+        <f>100-SUM(F11:F14)-$R$3</f>
+        <v>96.59</v>
+      </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
@@ -1035,30 +1054,29 @@
       <c r="F6" s="3">
         <v>15.3</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="17">
         <f>D6</f>
         <v>282</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="17">
         <f>D7</f>
         <v>149</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="17">
         <f>D8</f>
         <v>82</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="17">
         <f>D9</f>
         <v>45</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="18">
         <f>D10</f>
         <v>18</v>
       </c>
-      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -1076,30 +1094,29 @@
       <c r="F7" s="3">
         <v>8.08</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="17">
         <f>E6</f>
         <v>86</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="17">
         <f>E7</f>
         <v>110</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="17">
         <f>E8</f>
         <v>137</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="17">
         <f>E9</f>
         <v>161</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="18">
         <f>E10</f>
         <v>187</v>
       </c>
-      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1117,32 +1134,31 @@
       <c r="F8" s="3">
         <v>4.45</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="14">
         <f>J6-SUM(D7:D14)-R3</f>
         <v>-40</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="14">
         <f>K6-SUM(D8:D14)-R3</f>
         <v>-24</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="14">
         <f>L6-SUM(D9:D14)-R3</f>
         <v>-9</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="14">
         <f>M6-SUM(D10:D14)-R3</f>
         <v>-1</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="14">
         <f>N6-SUM(D11:D14)-R3</f>
         <v>-10</v>
       </c>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -1159,7 +1175,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -1174,6 +1190,29 @@
       </c>
       <c r="F10" s="3">
         <v>0.98</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="43">
+        <f>J6/SUM($D6:$D14,$R$3)</f>
+        <v>0.46688741721854304</v>
+      </c>
+      <c r="K10" s="43">
+        <f>K6/SUM($D7:$D14,$R$3)</f>
+        <v>0.46273291925465837</v>
+      </c>
+      <c r="L10" s="43">
+        <f>L6/SUM($D8:$D14,$R$3)</f>
+        <v>0.47398843930635837</v>
+      </c>
+      <c r="M10" s="43">
+        <f>M6/SUM($D9:$D14,$R$3)</f>
+        <v>0.49450549450549453</v>
+      </c>
+      <c r="N10" s="44">
+        <f>N6/SUM($D10:$D14,$R$3)</f>
+        <v>0.39130434782608697</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.3">
@@ -1228,58 +1267,58 @@
       </c>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15">
+      <c r="B14" s="8">
         <v>10</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="9">
         <v>2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="9">
         <v>276</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="10">
         <v>0.11</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26">
+      <c r="C15" s="41"/>
+      <c r="D15" s="23">
         <f>SUM(D4:D14)</f>
         <v>1841</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28">
+      <c r="E15" s="24"/>
+      <c r="F15" s="13">
         <f>SUM(F4:F14)</f>
         <v>99.89</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="I17" s="31" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="I17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
-      <c r="Q17" s="22" t="s">
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="34"/>
+      <c r="Q17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1297,20 +1336,20 @@
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="34" t="s">
+      <c r="I18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="25">
         <v>35</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-      <c r="Q18" s="23">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="Q18" s="11">
         <v>1445</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="22">
         <f>Q18-D30</f>
         <v>5</v>
       </c>
@@ -1331,25 +1370,25 @@
       <c r="F19" s="3">
         <v>27.2</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="K19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="M19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="38" t="s">
+      <c r="N19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="43"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
@@ -1367,30 +1406,29 @@
       <c r="F20" s="3">
         <v>31.97</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="17">
         <f>100-SUM(F22:F29)</f>
         <v>76.88</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="17">
         <f>100-SUM(F23:F29)</f>
         <v>86.43</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="17">
         <f>100-SUM(F24:F29)</f>
         <v>91.9</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="17">
         <f>100-SUM(F25:F29)</f>
         <v>95.84</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="18">
         <f>100-SUM(F26:F29)</f>
         <v>97.29</v>
       </c>
-      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
@@ -1408,30 +1446,29 @@
       <c r="F21" s="3">
         <v>17.37</v>
       </c>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="17">
         <f>D21</f>
         <v>251</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="17">
         <f>D22</f>
         <v>138</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="17">
         <f>D23</f>
         <v>79</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="17">
         <f>D24</f>
         <v>57</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="18">
         <f>D25</f>
         <v>21</v>
       </c>
-      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
@@ -1449,30 +1486,29 @@
       <c r="F22" s="3">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="17">
         <f>E21</f>
         <v>86</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="17">
         <f>E22</f>
         <v>110</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="17">
         <f>E23</f>
         <v>136</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="17">
         <f>E24</f>
         <v>161</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="18">
         <f>E25</f>
         <v>185</v>
       </c>
-      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
@@ -1490,32 +1526,31 @@
       <c r="F23" s="3">
         <v>5.47</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="14">
         <f>J21-SUM(D22:D29)-R18</f>
         <v>-88</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="14">
         <f>K21-SUM(D23:D29)-R18</f>
         <v>-63</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="14">
         <f>L21-SUM(D24:D29)-R18</f>
         <v>-43</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="14">
         <f>M21-SUM(D25:D29)-R18</f>
         <v>-8</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="14">
         <f>N21-SUM(D26:D29)-R18</f>
         <v>-23</v>
       </c>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <v>5</v>
       </c>
@@ -1532,7 +1567,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>6</v>
       </c>
@@ -1547,6 +1582,29 @@
       </c>
       <c r="F25" s="3">
         <v>1.45</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="43">
+        <f>J21/SUM($D21:$D29,$R$18)</f>
+        <v>0.42542372881355933</v>
+      </c>
+      <c r="K25" s="43">
+        <f>K21/SUM($D22:$D29,$R$18)</f>
+        <v>0.40707964601769914</v>
+      </c>
+      <c r="L25" s="43">
+        <f>L21/SUM($D23:$D29,$R$18)</f>
+        <v>0.39303482587064675</v>
+      </c>
+      <c r="M25" s="43">
+        <f>M21/SUM($D24:$D29,$R$18)</f>
+        <v>0.46721311475409838</v>
+      </c>
+      <c r="N25" s="44">
+        <f>N21/SUM($D25:$D29,$R$18)</f>
+        <v>0.32307692307692309</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
@@ -1618,15 +1676,15 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20">
+      <c r="C30" s="39"/>
+      <c r="D30" s="30">
         <f>SUM(D19:D29)</f>
         <v>1440</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="6">
         <f>SUM(F19:F29)</f>
         <v>99.66</v>
@@ -1634,25 +1692,25 @@
     </row>
     <row r="31" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="I32" s="31" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="I32" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="33"/>
-      <c r="Q32" s="22" t="s">
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
+      <c r="Q32" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R32" s="41" t="s">
+      <c r="R32" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1670,20 +1728,20 @@
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="I33" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="25">
         <v>40</v>
       </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="Q33" s="23">
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="Q33" s="11">
         <v>1159</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="22">
         <f>Q33-D45</f>
         <v>6</v>
       </c>
@@ -1704,22 +1762,22 @@
       <c r="F34" s="3">
         <v>16.22</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="I34" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K34" s="37" t="s">
+      <c r="K34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L34" s="37" t="s">
+      <c r="L34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="38" t="s">
+      <c r="N34" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1739,26 +1797,26 @@
       <c r="F35" s="3">
         <v>34.25</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="17">
         <f>100-SUM(F37:F44)</f>
         <v>69.45</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="17">
         <f>100-SUM(F38:F44)</f>
         <v>82.05</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="17">
         <f>100-SUM(F39:F44)</f>
         <v>89.13</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="17">
         <f>100-SUM(F40:F44)</f>
         <v>93.79</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="18">
         <f>100-SUM(F41:F44)</f>
         <v>95.86</v>
       </c>
@@ -1779,26 +1837,26 @@
       <c r="F36" s="3">
         <v>18.46</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="17">
         <f>D36</f>
         <v>214</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="17">
         <f>D37</f>
         <v>146</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="17">
         <f>D38</f>
         <v>82</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="17">
         <f>D39</f>
         <v>54</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="18">
         <f>D40</f>
         <v>24</v>
       </c>
@@ -1819,26 +1877,26 @@
       <c r="F37" s="3">
         <v>12.6</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="I37" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="17">
         <f>E36</f>
         <v>86</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="17">
         <f>E37</f>
         <v>110</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="17">
         <f>E38</f>
         <v>136</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="17">
         <f>E39</f>
         <v>161</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="18">
         <f>E40</f>
         <v>184</v>
       </c>
@@ -1859,31 +1917,31 @@
       <c r="F38" s="3">
         <v>7.08</v>
       </c>
-      <c r="I38" s="39" t="s">
+      <c r="I38" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="14">
         <f>J36-SUM(D37:D44)-R33</f>
         <v>-146</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="14">
         <f>K36-SUM(D38:D44)-R33</f>
         <v>-68</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="14">
         <f>L36-SUM(D39:D44)-R33</f>
         <v>-50</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="14">
         <f>M36-SUM(D40:D44)-R33</f>
         <v>-24</v>
       </c>
-      <c r="N38" s="29">
+      <c r="N38" s="14">
         <f>N36-SUM(D41:D44)-R33</f>
         <v>-30</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="2">
         <v>5</v>
       </c>
@@ -1900,7 +1958,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="2">
         <v>6</v>
       </c>
@@ -1915,6 +1973,29 @@
       </c>
       <c r="F40" s="3">
         <v>2.0699999999999998</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="43">
+        <f>J36/SUM($D36:$D44,$R$33)</f>
+        <v>0.37282229965156793</v>
+      </c>
+      <c r="K40" s="43">
+        <f>K36/SUM($D37:$D44,$R$33)</f>
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="L40" s="43">
+        <f>L36/SUM($D38:$D44,$R$33)</f>
+        <v>0.38317757009345793</v>
+      </c>
+      <c r="M40" s="43">
+        <f>M36/SUM($D39:$D44,$R$33)</f>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="N40" s="44">
+        <f>N36/SUM($D40:$D44,$R$33)</f>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.3">
@@ -1986,52 +2067,52 @@
       </c>
     </row>
     <row r="45" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20">
+      <c r="C45" s="39"/>
+      <c r="D45" s="30">
         <f>SUM(D34:D44)</f>
         <v>1153</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="6">
         <f>SUM(F34:F44)</f>
         <v>99.47999999999999</v>
       </c>
     </row>
     <row r="46" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
-      <c r="AA46" s="40"/>
-      <c r="AB46" s="40"/>
-      <c r="AC46" s="40"/>
-      <c r="AD46" s="40"/>
-      <c r="AE46" s="40"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.3">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="I47" s="31" t="s">
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="I47" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="33"/>
-      <c r="Q47" s="22" t="s">
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="34"/>
+      <c r="Q47" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R47" s="41" t="s">
+      <c r="R47" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2049,20 +2130,20 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="34" t="s">
+      <c r="I48" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="25">
         <v>45</v>
       </c>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="36"/>
-      <c r="Q48" s="23">
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="26"/>
+      <c r="Q48" s="11">
         <v>963</v>
       </c>
-      <c r="R48" s="42">
+      <c r="R48" s="22">
         <f>Q48-D60</f>
         <v>11</v>
       </c>
@@ -2083,22 +2164,22 @@
       <c r="F49" s="3">
         <v>7.27</v>
       </c>
-      <c r="I49" s="34" t="s">
+      <c r="I49" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="J49" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="37" t="s">
+      <c r="K49" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="37" t="s">
+      <c r="L49" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="37" t="s">
+      <c r="M49" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="38" t="s">
+      <c r="N49" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2118,26 +2199,26 @@
       <c r="F50" s="3">
         <v>34.479999999999997</v>
       </c>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="17">
         <f>100-SUM(F52:F59)</f>
         <v>63.230000000000004</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="17">
         <f>100-SUM(F53:F59)</f>
         <v>77.98</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="17">
         <f>100-SUM(F54:F59)</f>
         <v>86.5</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M50" s="17">
         <f>100-SUM(F55:F59)</f>
         <v>91.59</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N50" s="18">
         <f>100-SUM(F56:F59)</f>
         <v>94.5</v>
       </c>
@@ -2158,26 +2239,26 @@
       <c r="F51" s="3">
         <v>20.350000000000001</v>
       </c>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="17">
         <f>D51</f>
         <v>196</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="17">
         <f>D52</f>
         <v>142</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="17">
         <f>D53</f>
         <v>82</v>
       </c>
-      <c r="M51" s="37">
+      <c r="M51" s="17">
         <f>D54</f>
         <v>49</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51" s="18">
         <f>D55</f>
         <v>28</v>
       </c>
@@ -2198,26 +2279,26 @@
       <c r="F52" s="3">
         <v>14.75</v>
       </c>
-      <c r="I52" s="34" t="s">
+      <c r="I52" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="17">
         <f>E51</f>
         <v>87</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="17">
         <f>E52</f>
         <v>110</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="17">
         <f>E53</f>
         <v>135</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="17">
         <f>E54</f>
         <v>161</v>
       </c>
-      <c r="N52" s="38">
+      <c r="N52" s="18">
         <f>E55</f>
         <v>185</v>
       </c>
@@ -2238,31 +2319,31 @@
       <c r="F53" s="3">
         <v>8.52</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J53" s="14">
         <f>J51-SUM(D52:D59)-R48</f>
         <v>-169</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="14">
         <f>K51-SUM(D53:D59)-R48</f>
         <v>-81</v>
       </c>
-      <c r="L53" s="29">
+      <c r="L53" s="14">
         <f>L51-SUM(D54:D59)-R48</f>
         <v>-59</v>
       </c>
-      <c r="M53" s="29">
+      <c r="M53" s="14">
         <f>M51-SUM(D55:D59)-R48</f>
         <v>-43</v>
       </c>
-      <c r="N53" s="29">
+      <c r="N53" s="14">
         <f>N51-SUM(D56:D59)-R48</f>
         <v>-36</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="2">
         <v>5</v>
       </c>
@@ -2279,7 +2360,7 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="2">
         <v>6</v>
       </c>
@@ -2294,6 +2375,29 @@
       </c>
       <c r="F55" s="3">
         <v>2.91</v>
+      </c>
+      <c r="I55" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="43">
+        <f>J51/SUM($D51:$D59,$R$48)</f>
+        <v>0.34937611408199643</v>
+      </c>
+      <c r="K55" s="43">
+        <f>K51/SUM($D52:$D59,$R$48)</f>
+        <v>0.38904109589041097</v>
+      </c>
+      <c r="L55" s="43">
+        <f>L51/SUM($D53:$D59,$R$48)</f>
+        <v>0.36771300448430494</v>
+      </c>
+      <c r="M55" s="43">
+        <f>M51/SUM($D54:$D59,$R$48)</f>
+        <v>0.3475177304964539</v>
+      </c>
+      <c r="N55" s="44">
+        <f>N51/SUM($D55:$D59,$R$48)</f>
+        <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.3">
@@ -2365,15 +2469,15 @@
       </c>
     </row>
     <row r="60" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20">
+      <c r="C60" s="39"/>
+      <c r="D60" s="30">
         <f>SUM(D49:D59)</f>
         <v>952</v>
       </c>
-      <c r="E60" s="21"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="6">
         <f>SUM(F49:F59)</f>
         <v>98.86999999999999</v>
@@ -2381,25 +2485,25 @@
     </row>
     <row r="61" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="I62" s="31" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="37"/>
+      <c r="I62" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="33"/>
-      <c r="Q62" s="22" t="s">
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="34"/>
+      <c r="Q62" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R62" s="41" t="s">
+      <c r="R62" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2417,20 +2521,20 @@
       <c r="F63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I63" s="34" t="s">
+      <c r="I63" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="35">
+      <c r="J63" s="25">
         <v>50</v>
       </c>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="36"/>
-      <c r="Q63" s="23">
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26"/>
+      <c r="Q63" s="11">
         <v>825</v>
       </c>
-      <c r="R63" s="42">
+      <c r="R63" s="22">
         <f>Q63-D75</f>
         <v>13</v>
       </c>
@@ -2451,22 +2555,22 @@
       <c r="F64" s="3">
         <v>0</v>
       </c>
-      <c r="I64" s="34" t="s">
+      <c r="I64" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="37" t="s">
+      <c r="J64" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K64" s="37" t="s">
+      <c r="K64" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L64" s="37" t="s">
+      <c r="L64" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="37" t="s">
+      <c r="M64" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N64" s="38" t="s">
+      <c r="N64" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2486,26 +2590,26 @@
       <c r="F65" s="3">
         <v>33.94</v>
       </c>
-      <c r="I65" s="34" t="s">
+      <c r="I65" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="37">
+      <c r="J65" s="17">
         <f>100-SUM(F67:F74)</f>
         <v>56.740000000000009</v>
       </c>
-      <c r="K65" s="37">
+      <c r="K65" s="17">
         <f>100-SUM(F68:F74)</f>
         <v>73.22</v>
       </c>
-      <c r="L65" s="37">
+      <c r="L65" s="17">
         <f>100-SUM(F69:F74)</f>
         <v>83.64</v>
       </c>
-      <c r="M65" s="37">
+      <c r="M65" s="17">
         <f>100-SUM(F70:F74)</f>
         <v>89.58</v>
       </c>
-      <c r="N65" s="38">
+      <c r="N65" s="18">
         <f>100-SUM(F71:F74)</f>
         <v>93.22</v>
       </c>
@@ -2526,26 +2630,26 @@
       <c r="F66" s="3">
         <v>21.21</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J66" s="37">
+      <c r="J66" s="17">
         <f>D66</f>
         <v>175</v>
       </c>
-      <c r="K66" s="37">
+      <c r="K66" s="17">
         <f>D67</f>
         <v>136</v>
       </c>
-      <c r="L66" s="37">
+      <c r="L66" s="17">
         <f>D68</f>
         <v>86</v>
       </c>
-      <c r="M66" s="37">
+      <c r="M66" s="17">
         <f>D69</f>
         <v>49</v>
       </c>
-      <c r="N66" s="38">
+      <c r="N66" s="18">
         <f>D70</f>
         <v>30</v>
       </c>
@@ -2566,26 +2670,26 @@
       <c r="F67" s="3">
         <v>16.48</v>
       </c>
-      <c r="I67" s="34" t="s">
+      <c r="I67" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J67" s="37">
+      <c r="J67" s="17">
         <f>E66</f>
         <v>87</v>
       </c>
-      <c r="K67" s="37">
+      <c r="K67" s="17">
         <f>E67</f>
         <v>110</v>
       </c>
-      <c r="L67" s="37">
+      <c r="L67" s="17">
         <f>E68</f>
         <v>135</v>
       </c>
-      <c r="M67" s="37">
+      <c r="M67" s="17">
         <f>E69</f>
         <v>161</v>
       </c>
-      <c r="N67" s="38">
+      <c r="N67" s="18">
         <f>E70</f>
         <v>185</v>
       </c>
@@ -2606,31 +2710,31 @@
       <c r="F68" s="3">
         <v>10.42</v>
       </c>
-      <c r="I68" s="39" t="s">
+      <c r="I68" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J68" s="29">
+      <c r="J68" s="14">
         <f>J66-SUM(D67:D74)-R63</f>
         <v>-195</v>
       </c>
-      <c r="K68" s="29">
+      <c r="K68" s="14">
         <f>K66-SUM(D68:D74)-R63</f>
         <v>-98</v>
       </c>
-      <c r="L68" s="29">
+      <c r="L68" s="14">
         <f>L66-SUM(D69:D74)-R63</f>
         <v>-62</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M68" s="14">
         <f>M66-SUM(D70:D74)-R63</f>
         <v>-50</v>
       </c>
-      <c r="N68" s="29">
+      <c r="N68" s="14">
         <f>N66-SUM(D71:D74)-R63</f>
         <v>-39</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="2">
         <v>5</v>
       </c>
@@ -2647,7 +2751,7 @@
         <v>5.94</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="2">
         <v>6</v>
       </c>
@@ -2662,6 +2766,29 @@
       </c>
       <c r="F70" s="3">
         <v>3.64</v>
+      </c>
+      <c r="I70" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="43">
+        <f>J66/SUM($D66:$D74,$R$63)</f>
+        <v>0.32110091743119268</v>
+      </c>
+      <c r="K70" s="43">
+        <f>K66/SUM($D67:$D74,$R$63)</f>
+        <v>0.36756756756756759</v>
+      </c>
+      <c r="L70" s="43">
+        <f>L66/SUM($D68:$D74,$R$63)</f>
+        <v>0.36752136752136755</v>
+      </c>
+      <c r="M70" s="43">
+        <f>M66/SUM($D69:$D74,$R$63)</f>
+        <v>0.33108108108108109</v>
+      </c>
+      <c r="N70" s="44">
+        <f>N66/SUM($D70:$D74,$R$63)</f>
+        <v>0.30303030303030304</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.3">
@@ -2733,15 +2860,15 @@
       </c>
     </row>
     <row r="75" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20">
+      <c r="C75" s="39"/>
+      <c r="D75" s="30">
         <f>SUM(D64:D74)</f>
         <v>812</v>
       </c>
-      <c r="E75" s="21"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="6">
         <f>SUM(F64:F74)</f>
         <v>98.41</v>
@@ -2749,25 +2876,25 @@
     </row>
     <row r="76" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="I77" s="31" t="s">
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="37"/>
+      <c r="I77" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="33"/>
-      <c r="Q77" s="22" t="s">
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="34"/>
+      <c r="Q77" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R77" s="41" t="s">
+      <c r="R77" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2785,20 +2912,20 @@
       <c r="F78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I78" s="34" t="s">
+      <c r="I78" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J78" s="35">
+      <c r="J78" s="25">
         <v>55</v>
       </c>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="36"/>
-      <c r="Q78" s="23">
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="26"/>
+      <c r="Q78" s="11">
         <v>717</v>
       </c>
-      <c r="R78" s="42">
+      <c r="R78" s="22">
         <f>Q78-D90</f>
         <v>19</v>
       </c>
@@ -2819,22 +2946,22 @@
       <c r="F79" s="3">
         <v>0</v>
       </c>
-      <c r="I79" s="34" t="s">
+      <c r="I79" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J79" s="37" t="s">
+      <c r="J79" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K79" s="37" t="s">
+      <c r="K79" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L79" s="37" t="s">
+      <c r="L79" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M79" s="37" t="s">
+      <c r="M79" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N79" s="38" t="s">
+      <c r="N79" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2854,26 +2981,26 @@
       <c r="F80" s="3">
         <v>27.2</v>
       </c>
-      <c r="I80" s="34" t="s">
+      <c r="I80" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J80" s="37">
+      <c r="J80" s="17">
         <f>100-SUM(F82:F89)</f>
         <v>52.019999999999996</v>
       </c>
-      <c r="K80" s="37">
+      <c r="K80" s="17">
         <f>100-SUM(F83:F89)</f>
         <v>69.87</v>
       </c>
-      <c r="L80" s="37">
+      <c r="L80" s="17">
         <f>100-SUM(F84:F89)</f>
         <v>81.31</v>
       </c>
-      <c r="M80" s="37">
+      <c r="M80" s="17">
         <f>100-SUM(F85:F89)</f>
         <v>88.42</v>
       </c>
-      <c r="N80" s="38">
+      <c r="N80" s="18">
         <f>100-SUM(F86:F89)</f>
         <v>92.46</v>
       </c>
@@ -2894,26 +3021,26 @@
       <c r="F81" s="3">
         <v>22.18</v>
       </c>
-      <c r="I81" s="34" t="s">
+      <c r="I81" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J81" s="37">
+      <c r="J81" s="17">
         <f>D81</f>
         <v>159</v>
       </c>
-      <c r="K81" s="37">
+      <c r="K81" s="17">
         <f>D82</f>
         <v>128</v>
       </c>
-      <c r="L81" s="37">
+      <c r="L81" s="17">
         <f>D83</f>
         <v>82</v>
       </c>
-      <c r="M81" s="37">
+      <c r="M81" s="17">
         <f>D84</f>
         <v>51</v>
       </c>
-      <c r="N81" s="38">
+      <c r="N81" s="18">
         <f>D85</f>
         <v>29</v>
       </c>
@@ -2934,26 +3061,26 @@
       <c r="F82" s="3">
         <v>17.850000000000001</v>
       </c>
-      <c r="I82" s="34" t="s">
+      <c r="I82" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J82" s="37">
+      <c r="J82" s="17">
         <f>E81</f>
         <v>87</v>
       </c>
-      <c r="K82" s="37">
+      <c r="K82" s="17">
         <f>E82</f>
         <v>110</v>
       </c>
-      <c r="L82" s="37">
+      <c r="L82" s="17">
         <f>E83</f>
         <v>135</v>
       </c>
-      <c r="M82" s="37">
+      <c r="M82" s="17">
         <f>E84</f>
         <v>161</v>
       </c>
-      <c r="N82" s="38">
+      <c r="N82" s="18">
         <f>E85</f>
         <v>185</v>
       </c>
@@ -2974,31 +3101,31 @@
       <c r="F83" s="3">
         <v>11.44</v>
       </c>
-      <c r="I83" s="39" t="s">
+      <c r="I83" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J83" s="29">
+      <c r="J83" s="14">
         <f>J81-SUM(D82:D89)-R78</f>
         <v>-204</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K83" s="14">
         <f>K81-SUM(D83:D89)-R78</f>
         <v>-107</v>
       </c>
-      <c r="L83" s="29">
+      <c r="L83" s="14">
         <f>L81-SUM(D84:D89)-R78</f>
         <v>-71</v>
       </c>
-      <c r="M83" s="29">
+      <c r="M83" s="14">
         <f>M81-SUM(D85:D89)-R78</f>
         <v>-51</v>
       </c>
-      <c r="N83" s="29">
+      <c r="N83" s="14">
         <f>N81-SUM(D86:D89)-R78</f>
         <v>-44</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="2">
         <v>5</v>
       </c>
@@ -3015,7 +3142,7 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="2">
         <v>6</v>
       </c>
@@ -3030,6 +3157,29 @@
       </c>
       <c r="F85" s="3">
         <v>4.04</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" s="43">
+        <f>J81/SUM($D81:$D89,$R$78)</f>
+        <v>0.3045977011494253</v>
+      </c>
+      <c r="K85" s="43">
+        <f>K81/SUM($D82:$D89,$R$78)</f>
+        <v>0.35261707988980717</v>
+      </c>
+      <c r="L85" s="43">
+        <f>L81/SUM($D83:$D89,$R$78)</f>
+        <v>0.34893617021276596</v>
+      </c>
+      <c r="M85" s="43">
+        <f>M81/SUM($D84:$D89,$R$78)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N85" s="44">
+        <f>N81/SUM($D85:$D89,$R$78)</f>
+        <v>0.28431372549019607</v>
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
@@ -3101,15 +3251,15 @@
       </c>
     </row>
     <row r="90" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20">
+      <c r="C90" s="39"/>
+      <c r="D90" s="30">
         <f>SUM(D79:D89)</f>
         <v>698</v>
       </c>
-      <c r="E90" s="21"/>
+      <c r="E90" s="31"/>
       <c r="F90" s="6">
         <f>SUM(F79:F89)</f>
         <v>97.36</v>
@@ -3117,25 +3267,25 @@
     </row>
     <row r="91" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="14"/>
-      <c r="I92" s="31" t="s">
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="37"/>
+      <c r="I92" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J92" s="32"/>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="33"/>
-      <c r="Q92" s="22" t="s">
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="34"/>
+      <c r="Q92" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="R92" s="41" t="s">
+      <c r="R92" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3153,20 +3303,20 @@
       <c r="F93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I93" s="34" t="s">
+      <c r="I93" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="35">
+      <c r="J93" s="25">
         <v>60</v>
       </c>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="36"/>
-      <c r="Q93" s="23">
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="26"/>
+      <c r="Q93" s="11">
         <v>607</v>
       </c>
-      <c r="R93" s="42">
+      <c r="R93" s="22">
         <f>Q93-D105</f>
         <v>22</v>
       </c>
@@ -3187,22 +3337,22 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="34" t="s">
+      <c r="I94" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J94" s="37" t="s">
+      <c r="J94" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="37" t="s">
+      <c r="K94" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L94" s="37" t="s">
+      <c r="L94" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M94" s="37" t="s">
+      <c r="M94" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="38" t="s">
+      <c r="N94" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3222,26 +3372,26 @@
       <c r="F95" s="3">
         <v>18.29</v>
       </c>
-      <c r="I95" s="34" t="s">
+      <c r="I95" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="37">
+      <c r="J95" s="17">
         <f>100-SUM(F97:F104)</f>
         <v>45.31</v>
       </c>
-      <c r="K95" s="37">
+      <c r="K95" s="17">
         <f>100-SUM(F98:F104)</f>
         <v>64.75</v>
       </c>
-      <c r="L95" s="37">
+      <c r="L95" s="17">
         <f>100-SUM(F99:F104)</f>
         <v>77.599999999999994</v>
       </c>
-      <c r="M95" s="37">
+      <c r="M95" s="17">
         <f>100-SUM(F100:F104)</f>
         <v>86.33</v>
       </c>
-      <c r="N95" s="38">
+      <c r="N95" s="18">
         <f>100-SUM(F101:F104)</f>
         <v>90.61</v>
       </c>
@@ -3262,26 +3412,26 @@
       <c r="F96" s="3">
         <v>23.39</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I96" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J96" s="37">
+      <c r="J96" s="17">
         <f>D96</f>
         <v>142</v>
       </c>
-      <c r="K96" s="37">
+      <c r="K96" s="17">
         <f>D97</f>
         <v>118</v>
       </c>
-      <c r="L96" s="37">
+      <c r="L96" s="17">
         <f>D98</f>
         <v>78</v>
       </c>
-      <c r="M96" s="37">
+      <c r="M96" s="17">
         <f>D99</f>
         <v>53</v>
       </c>
-      <c r="N96" s="38">
+      <c r="N96" s="18">
         <f>D100</f>
         <v>26</v>
       </c>
@@ -3302,26 +3452,26 @@
       <c r="F97" s="3">
         <v>19.440000000000001</v>
       </c>
-      <c r="I97" s="34" t="s">
+      <c r="I97" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J97" s="37">
+      <c r="J97" s="17">
         <f>E96</f>
         <v>87</v>
       </c>
-      <c r="K97" s="37">
+      <c r="K97" s="17">
         <f>E97</f>
         <v>111</v>
       </c>
-      <c r="L97" s="37">
+      <c r="L97" s="17">
         <f>E98</f>
         <v>135</v>
       </c>
-      <c r="M97" s="37">
+      <c r="M97" s="17">
         <f>E99</f>
         <v>161</v>
       </c>
-      <c r="N97" s="38">
+      <c r="N97" s="18">
         <f>E100</f>
         <v>186</v>
       </c>
@@ -3342,31 +3492,31 @@
       <c r="F98" s="3">
         <v>12.85</v>
       </c>
-      <c r="I98" s="39" t="s">
+      <c r="I98" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J98" s="29">
+      <c r="J98" s="14">
         <f>J96-SUM(D97:D104)-R93</f>
         <v>-212</v>
       </c>
-      <c r="K98" s="29">
+      <c r="K98" s="14">
         <f>K96-SUM(D98:D104)-R93</f>
         <v>-118</v>
       </c>
-      <c r="L98" s="29">
+      <c r="L98" s="14">
         <f>L96-SUM(D99:D104)-R93</f>
         <v>-80</v>
       </c>
-      <c r="M98" s="29">
+      <c r="M98" s="14">
         <f>M96-SUM(D100:D104)-R93</f>
         <v>-52</v>
       </c>
-      <c r="N98" s="29">
+      <c r="N98" s="14">
         <f>N96-SUM(D101:D104)-R93</f>
         <v>-53</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="2">
         <v>5</v>
       </c>
@@ -3383,7 +3533,7 @@
         <v>8.73</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="2">
         <v>6</v>
       </c>
@@ -3398,6 +3548,29 @@
       </c>
       <c r="F100" s="3">
         <v>4.28</v>
+      </c>
+      <c r="I100" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="43">
+        <f>J96/SUM($D96:$D104,$R$93)</f>
+        <v>0.28629032258064518</v>
+      </c>
+      <c r="K100" s="43">
+        <f>K96/SUM($D97:$D104,$R$93)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L100" s="43">
+        <f>L96/SUM($D98:$D104,$R$93)</f>
+        <v>0.33050847457627119</v>
+      </c>
+      <c r="M100" s="43">
+        <f>M96/SUM($D99:$D104,$R$93)</f>
+        <v>0.33544303797468356</v>
+      </c>
+      <c r="N100" s="44">
+        <f>N96/SUM($D100:$D104,$R$93)</f>
+        <v>0.24761904761904763</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
@@ -3469,24 +3642,47 @@
       </c>
     </row>
     <row r="105" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="20">
+      <c r="C105" s="39"/>
+      <c r="D105" s="30">
         <f>SUM(D94:D104)</f>
         <v>585</v>
       </c>
-      <c r="E105" s="21"/>
+      <c r="E105" s="31"/>
       <c r="F105" s="6">
         <f>SUM(F94:F104)</f>
         <v>96.36999999999999</v>
       </c>
     </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I107" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J107" s="45">
+        <f>AVERAGE(J100,J85,J70,J55,J40,J25,J10)</f>
+        <v>0.36092835727527567</v>
+      </c>
+      <c r="K107" s="45">
+        <f t="shared" ref="K107:N107" si="0">AVERAGE(K100,K85,K70,K55,K40,K25,K10)</f>
+        <v>0.38827531392986175</v>
+      </c>
+      <c r="L107" s="45">
+        <f t="shared" si="0"/>
+        <v>0.3806971217235961</v>
+      </c>
+      <c r="M107" s="45">
+        <f t="shared" si="0"/>
+        <v>0.38831210017657913</v>
+      </c>
+      <c r="N107" s="45">
+        <f t="shared" si="0"/>
+        <v>0.30876921154597442</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
     <mergeCell ref="B105:C105"/>
     <mergeCell ref="D105:E105"/>
     <mergeCell ref="I32:N32"/>
@@ -3499,10 +3695,6 @@
     <mergeCell ref="J78:N78"/>
     <mergeCell ref="I92:N92"/>
     <mergeCell ref="J93:N93"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B47:F47"/>
     <mergeCell ref="B92:F92"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="B62:F62"/>
@@ -3513,15 +3705,77 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="D75:E75"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
+  <conditionalFormatting sqref="I38:N38">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:N8 J23:N23 J38:N38 J53:N53 J68:N68 J83:N83 J98:N98">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J8:N8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:N23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3533,8 +3787,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:N23">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="J38:N38">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="20"/>
@@ -3544,44 +3798,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:N38">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:N53">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:N8 J23:N23 J38:N38 J53:N53 J68:N68 J83:N83 J98:N98">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:N23">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3593,7 +3809,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:N38">
+  <conditionalFormatting sqref="J53:N53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -3604,8 +3830,28 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:N53">
+  <conditionalFormatting sqref="J68:N68">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -3617,7 +3863,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68:N68">
+  <conditionalFormatting sqref="J83:N83">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3629,7 +3885,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:N83">
+  <conditionalFormatting sqref="J98:N98">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3641,83 +3907,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J98:N98">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:N23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:N38">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53:N53">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:N68">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83:N83">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98:N98">
+  <conditionalFormatting sqref="J10:N10 J25:N25 J40:N40 J55:N55 J70:N70 J85:N85 J100:N100">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="20"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
